--- a/src/main/resources/template/excel/export/DirectReceiptForm.xlsx
+++ b/src/main/resources/template/excel/export/DirectReceiptForm.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="P4")</t>
+          <t>jx:area(lastCell="R4")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="P3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="R3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>货号</t>
   </si>
@@ -169,11 +169,31 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(I3:I3:I3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>$[SUMPRODUCT(M3:M3:M3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税单价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedPrice}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(J3:J3:J3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(K3:K3:K3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -288,10 +308,10 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -596,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -607,32 +627,34 @@
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="15" width="18.625" customWidth="1"/>
-    <col min="16" max="16" width="24.625" customWidth="1"/>
+    <col min="4" max="15" width="12.625" customWidth="1"/>
+    <col min="16" max="17" width="18.625" customWidth="1"/>
+    <col min="18" max="18" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -655,34 +677,40 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -704,35 +732,41 @@
       <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -747,22 +781,26 @@
         <v>35</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/DirectReceiptForm.xlsx
+++ b/src/main/resources/template/excel/export/DirectReceiptForm.xlsx
@@ -169,10 +169,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(M3:M3:M3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>不含税单价</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -194,6 +190,10 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(K3:K3:K3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(O3:O3:O3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -677,13 +677,13 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>10</v>
@@ -733,13 +733,13 @@
         <v>22</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>26</v>
@@ -753,7 +753,7 @@
       <c r="N3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="4" t="s">
@@ -783,16 +783,16 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>36</v>
+      <c r="O4" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
